--- a/Input/c01-2-hist.xlsx
+++ b/Input/c01-2-hist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13130" windowHeight="6110"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">OFFSET(Data!$B$12,0,0,COUNTA(Data!$A:$A)-9,COUNTA(Data!$11:$11)-1)</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Data!$A:$A,Data!$1:$11</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="179">
   <si>
     <t xml:space="preserve">C1.2 Credit and Charge Cards – Original Series – Personal and Commercial Cards </t>
   </si>
@@ -574,6 +574,9 @@
   <si>
     <t>‘Credit and charge card transaction acquired in Australia' means any transaction where a card or other device is presented at a domestic merchant.</t>
   </si>
+  <si>
+    <t>07-Mar-2022</t>
+  </si>
 </sst>
 </file>
 
@@ -784,7 +787,79 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="406">
+  <dxfs count="412">
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <sz val="9"/>
@@ -5933,19 +6008,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL250"/>
+  <dimension ref="A1:AL252"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="11" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="11" topLeftCell="B220" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.5"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="37" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" customWidth="1"/>
+    <col min="2" max="37" width="20.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -6749,113 +6824,113 @@
       <c r="A10" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="C10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="D10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="E10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="F10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="G10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="H10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="I10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="J10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="K10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="L10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="M10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="N10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="O10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="P10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="R10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="S10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="T10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="U10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="V10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="W10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="X10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="Y10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="Z10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="AA10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="AB10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="AC10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="AD10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="AE10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="AF10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="AG10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="AH10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="AI10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="AJ10" s="4">
-        <v>44573</v>
-      </c>
-      <c r="AK10" s="4">
-        <v>44573</v>
+      <c r="B10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK10" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -7190,7 +7265,7 @@
         <v>8664.0500213132109</v>
       </c>
       <c r="R14" s="33">
-        <v>19598.753932485801</v>
+        <v>19598.753932485899</v>
       </c>
       <c r="S14" s="33">
         <v>53900.494912000002</v>
@@ -7368,7 +7443,7 @@
         <v>8864.0193028351296</v>
       </c>
       <c r="R16" s="33">
-        <v>20040.813385275898</v>
+        <v>20040.813385276</v>
       </c>
       <c r="S16" s="33">
         <v>55117.774092</v>
@@ -7902,7 +7977,7 @@
         <v>15616.5506006306</v>
       </c>
       <c r="R22" s="33">
-        <v>21458.1650345503</v>
+        <v>21458.165034550198</v>
       </c>
       <c r="S22" s="33">
         <v>59242.447052000003</v>
@@ -10258,7 +10333,7 @@
         <v>329.37659208000002</v>
       </c>
       <c r="AJ48" s="33">
-        <v>1365.5400330482901</v>
+        <v>1365.5400330483001</v>
       </c>
       <c r="AK48" s="33">
         <v>3634.9164030000002</v>
@@ -10786,7 +10861,7 @@
         <v>1452.37241255</v>
       </c>
       <c r="AH54" s="33">
-        <v>1454.0935882511301</v>
+        <v>1454.0935882511201</v>
       </c>
       <c r="AI54" s="33">
         <v>363.32827441000001</v>
@@ -12174,7 +12249,7 @@
         <v>26593.022977197401</v>
       </c>
       <c r="R70" s="33">
-        <v>35823.623546936702</v>
+        <v>35823.623546936797</v>
       </c>
       <c r="S70" s="33">
         <v>98266.221608000007</v>
@@ -13904,7 +13979,7 @@
         <v>4933.4979999999996</v>
       </c>
       <c r="K89" s="33">
-        <v>880.45912235731396</v>
+        <v>880.45912235731498</v>
       </c>
       <c r="L89" s="33"/>
       <c r="M89" s="33"/>
@@ -14703,7 +14778,7 @@
         <v>2312.27201044</v>
       </c>
       <c r="AI96" s="33">
-        <v>974.39467261785899</v>
+        <v>974.39467261786001</v>
       </c>
       <c r="AJ96" s="33">
         <v>2566.15168412</v>
@@ -14954,7 +15029,7 @@
         <v>4329.3109999999997</v>
       </c>
       <c r="K99" s="33">
-        <v>784.62603110509599</v>
+        <v>784.62603110509497</v>
       </c>
       <c r="L99" s="33"/>
       <c r="M99" s="33"/>
@@ -18839,7 +18914,7 @@
         <v>7093.77282791789</v>
       </c>
       <c r="K136" s="33">
-        <v>989.89453667425903</v>
+        <v>989.89453667425801</v>
       </c>
       <c r="L136" s="33"/>
       <c r="M136" s="33"/>
@@ -19346,7 +19421,7 @@
         <v>2186.8016666666699</v>
       </c>
       <c r="E141" s="33">
-        <v>785.44780151333396</v>
+        <v>785.44780151333305</v>
       </c>
       <c r="F141" s="33">
         <v>150406.10200000001</v>
@@ -19673,7 +19748,7 @@
         <v>134711.18299999999</v>
       </c>
       <c r="I144" s="33">
-        <v>15953.4814953186</v>
+        <v>15953.4814953185</v>
       </c>
       <c r="J144" s="33">
         <v>8475.4609999999993</v>
@@ -19693,7 +19768,7 @@
         <v>19313.283107210002</v>
       </c>
       <c r="Q144" s="33">
-        <v>34764.369820350897</v>
+        <v>34764.369820350999</v>
       </c>
       <c r="R144" s="33">
         <v>45404.709831104999</v>
@@ -20793,7 +20868,7 @@
         <v>3472.4438188600002</v>
       </c>
       <c r="AI154" s="33">
-        <v>1222.9174823779199</v>
+        <v>1222.9174823779099</v>
       </c>
       <c r="AJ154" s="33">
         <v>4244.7706600399997</v>
@@ -21166,7 +21241,7 @@
         <v>32469.185437293701</v>
       </c>
       <c r="R158" s="33">
-        <v>46038.646696963697</v>
+        <v>46038.646696963799</v>
       </c>
       <c r="S158" s="33">
         <v>129624.57858027</v>
@@ -21901,7 +21976,7 @@
         <v>31346.838882248499</v>
       </c>
       <c r="R165" s="33">
-        <v>45679.401921726399</v>
+        <v>45679.401921726501</v>
       </c>
       <c r="S165" s="33">
         <v>131994.0425259</v>
@@ -22003,7 +22078,7 @@
         <v>19696.466333370001</v>
       </c>
       <c r="Q166" s="33">
-        <v>30983.708422934898</v>
+        <v>30983.708422935</v>
       </c>
       <c r="R166" s="33">
         <v>46425.754623351902</v>
@@ -23208,7 +23283,7 @@
         <v>4136.6127610100002</v>
       </c>
       <c r="AI177" s="33">
-        <v>1337.4607498694099</v>
+        <v>1337.4607498694199</v>
       </c>
       <c r="AJ177" s="33">
         <v>4323.6328532500002</v>
@@ -23683,7 +23758,7 @@
         <v>22691.80224691</v>
       </c>
       <c r="Q182" s="33">
-        <v>31267.279316088399</v>
+        <v>31267.279316088501</v>
       </c>
       <c r="R182" s="33">
         <v>47418.847030755001</v>
@@ -24363,7 +24438,7 @@
         <v>4218.7979336300004</v>
       </c>
       <c r="AI188" s="33">
-        <v>1357.4631696410299</v>
+        <v>1357.4631696410399</v>
       </c>
       <c r="AJ188" s="33">
         <v>4660.56228457</v>
@@ -25888,7 +25963,7 @@
         <v>23514.647566880001</v>
       </c>
       <c r="Q203" s="33">
-        <v>30429.302016039601</v>
+        <v>30429.302016039699</v>
       </c>
       <c r="R203" s="33">
         <v>47842.542491480002</v>
@@ -31120,10 +31195,10 @@
         <v>44530</v>
       </c>
       <c r="B250" s="34">
-        <v>12408.282999999999</v>
+        <v>12408.231</v>
       </c>
       <c r="C250" s="34">
-        <v>15903.501</v>
+        <v>15903.415000000001</v>
       </c>
       <c r="D250" s="34">
         <v>1243.4970000000001</v>
@@ -31162,16 +31237,16 @@
         <v>25697.51008819</v>
       </c>
       <c r="P250" s="34">
-        <v>24055.271848199998</v>
+        <v>24059.178848200001</v>
       </c>
       <c r="Q250" s="34">
-        <v>17156.5767680385</v>
+        <v>17167.421768038501</v>
       </c>
       <c r="R250" s="34">
-        <v>32757.703289730001</v>
+        <v>32760.379289730001</v>
       </c>
       <c r="S250" s="34">
-        <v>116625.79736239</v>
+        <v>116625.70136239</v>
       </c>
       <c r="T250" s="34">
         <v>761.50400000000002</v>
@@ -31226,6 +31301,232 @@
       </c>
       <c r="AK250" s="34">
         <v>11461.131337000001</v>
+      </c>
+    </row>
+    <row r="251" spans="1:38">
+      <c r="A251" s="32">
+        <v>44561</v>
+      </c>
+      <c r="B251" s="34">
+        <v>12408.758</v>
+      </c>
+      <c r="C251" s="34">
+        <v>15882.565000000001</v>
+      </c>
+      <c r="D251" s="34">
+        <v>1093.78</v>
+      </c>
+      <c r="E251" s="34">
+        <v>402.00227790999702</v>
+      </c>
+      <c r="F251" s="34">
+        <v>282717.03100000002</v>
+      </c>
+      <c r="G251" s="34">
+        <v>24947.890828290001</v>
+      </c>
+      <c r="H251" s="34">
+        <v>276621.95299999998</v>
+      </c>
+      <c r="I251" s="34">
+        <v>24266.44442295</v>
+      </c>
+      <c r="J251" s="34">
+        <v>6095.0780000000004</v>
+      </c>
+      <c r="K251" s="34">
+        <v>681.44640534000098</v>
+      </c>
+      <c r="L251" s="34">
+        <v>1596.5029999999999</v>
+      </c>
+      <c r="M251" s="34">
+        <v>222.68731578000001</v>
+      </c>
+      <c r="N251" s="34">
+        <v>283810.81099999999</v>
+      </c>
+      <c r="O251" s="34">
+        <v>25349.893106200001</v>
+      </c>
+      <c r="P251" s="34">
+        <v>25452.706726780001</v>
+      </c>
+      <c r="Q251" s="34">
+        <v>17244.1229284234</v>
+      </c>
+      <c r="R251" s="34">
+        <v>32846.049934160001</v>
+      </c>
+      <c r="S251" s="34">
+        <v>116304.91176639</v>
+      </c>
+      <c r="T251" s="34">
+        <v>760.28599999999994</v>
+      </c>
+      <c r="U251" s="34">
+        <v>1722.1479999999999</v>
+      </c>
+      <c r="V251" s="34">
+        <v>29.611000000000001</v>
+      </c>
+      <c r="W251" s="34">
+        <v>33.964543569999499</v>
+      </c>
+      <c r="X251" s="34">
+        <v>14651.226000000001</v>
+      </c>
+      <c r="Y251" s="34">
+        <v>6123.9690786904202</v>
+      </c>
+      <c r="Z251" s="34">
+        <v>13924.987999999999</v>
+      </c>
+      <c r="AA251" s="34">
+        <v>5885.6428670200203</v>
+      </c>
+      <c r="AB251" s="34">
+        <v>726.23800000000006</v>
+      </c>
+      <c r="AC251" s="34">
+        <v>238.3262116704</v>
+      </c>
+      <c r="AD251" s="34">
+        <v>228.69499999999999</v>
+      </c>
+      <c r="AE251" s="34">
+        <v>88.309596428800006</v>
+      </c>
+      <c r="AF251" s="34">
+        <v>14680.837</v>
+      </c>
+      <c r="AG251" s="34">
+        <v>6157.9336222604197</v>
+      </c>
+      <c r="AH251" s="34">
+        <v>6349.7995659341996</v>
+      </c>
+      <c r="AI251" s="34">
+        <v>762.57044070761901</v>
+      </c>
+      <c r="AJ251" s="34">
+        <v>5033.9075005799996</v>
+      </c>
+      <c r="AK251" s="34">
+        <v>11497.711995</v>
+      </c>
+    </row>
+    <row r="252" spans="1:38">
+      <c r="A252" s="32">
+        <v>44592</v>
+      </c>
+      <c r="B252" s="34">
+        <v>12394.482</v>
+      </c>
+      <c r="C252" s="34">
+        <v>15844.76</v>
+      </c>
+      <c r="D252" s="34">
+        <v>1079.6099999999999</v>
+      </c>
+      <c r="E252" s="34">
+        <v>366.07913877999999</v>
+      </c>
+      <c r="F252" s="34">
+        <v>240231.08900000001</v>
+      </c>
+      <c r="G252" s="34">
+        <v>20699.437663420002</v>
+      </c>
+      <c r="H252" s="34">
+        <v>234144.696</v>
+      </c>
+      <c r="I252" s="34">
+        <v>19986.717701289999</v>
+      </c>
+      <c r="J252" s="34">
+        <v>6086.393</v>
+      </c>
+      <c r="K252" s="34">
+        <v>712.71996213000102</v>
+      </c>
+      <c r="L252" s="34">
+        <v>1780.39</v>
+      </c>
+      <c r="M252" s="34">
+        <v>264.79490449000002</v>
+      </c>
+      <c r="N252" s="34">
+        <v>241310.69899999999</v>
+      </c>
+      <c r="O252" s="34">
+        <v>21065.5168022</v>
+      </c>
+      <c r="P252" s="34">
+        <v>22665.389115279999</v>
+      </c>
+      <c r="Q252" s="34">
+        <v>17392.778275849101</v>
+      </c>
+      <c r="R252" s="34">
+        <v>31446.252086479999</v>
+      </c>
+      <c r="S252" s="34">
+        <v>116040.39122139</v>
+      </c>
+      <c r="T252" s="34">
+        <v>758.03200000000004</v>
+      </c>
+      <c r="U252" s="34">
+        <v>1718.5309999999999</v>
+      </c>
+      <c r="V252" s="34">
+        <v>26.359000000000002</v>
+      </c>
+      <c r="W252" s="34">
+        <v>30.733698990000001</v>
+      </c>
+      <c r="X252" s="34">
+        <v>11131.011</v>
+      </c>
+      <c r="Y252" s="34">
+        <v>4771.7243900100002</v>
+      </c>
+      <c r="Z252" s="34">
+        <v>10435.123</v>
+      </c>
+      <c r="AA252" s="34">
+        <v>4547.4950168300002</v>
+      </c>
+      <c r="AB252" s="34">
+        <v>695.88800000000003</v>
+      </c>
+      <c r="AC252" s="34">
+        <v>224.22937318000001</v>
+      </c>
+      <c r="AD252" s="34">
+        <v>232.15700000000001</v>
+      </c>
+      <c r="AE252" s="34">
+        <v>89.627465369999996</v>
+      </c>
+      <c r="AF252" s="34">
+        <v>11157.37</v>
+      </c>
+      <c r="AG252" s="34">
+        <v>4802.4580889999997</v>
+      </c>
+      <c r="AH252" s="34">
+        <v>5458.47106936</v>
+      </c>
+      <c r="AI252" s="34">
+        <v>778.40299390337304</v>
+      </c>
+      <c r="AJ252" s="34">
+        <v>4340.8970476100003</v>
+      </c>
+      <c r="AK252" s="34">
+        <v>11481.948048</v>
       </c>
     </row>
   </sheetData>
@@ -31244,9 +31545,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.5"/>
   <cols>
-    <col min="1" max="1" width="100.7109375" customWidth="1"/>
+    <col min="1" max="1" width="100.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -31702,397 +32003,406 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A20:XFD1048576 B1:XFD19">
-    <cfRule type="expression" dxfId="405" priority="95">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="404" priority="96">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="403" priority="97">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="402" priority="98">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="401" priority="99">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="400" priority="100">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="399" priority="101">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="398" priority="102">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="397" priority="103">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="396" priority="104">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="395" priority="105">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="394" priority="106">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="393" priority="107">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="392" priority="108">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="391" priority="109">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="390" priority="110">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="389" priority="111">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="388" priority="112">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="387" priority="113">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="386" priority="114">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="385" priority="115">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="384" priority="116">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="383" priority="117">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="382" priority="118">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="381" priority="119">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="380" priority="120">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="379" priority="121">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="378" priority="122">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="377" priority="123">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="376" priority="124">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="375" priority="125">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="374" priority="126">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="373" priority="127">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="372" priority="128">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="371" priority="129">
+    <cfRule type="expression" dxfId="411" priority="98">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="410" priority="99">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="409" priority="100">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="408" priority="101">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="407" priority="102">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="406" priority="103">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="405" priority="104">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="404" priority="105">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="403" priority="106">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="402" priority="107">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="401" priority="108">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="400" priority="109">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="399" priority="110">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="398" priority="111">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="397" priority="112">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="396" priority="113">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="395" priority="114">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="394" priority="115">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="393" priority="116">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="392" priority="117">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="391" priority="118">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="390" priority="119">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="389" priority="120">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="388" priority="121">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="387" priority="122">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="386" priority="123">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="385" priority="124">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="384" priority="125">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="383" priority="126">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="382" priority="127">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="381" priority="128">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="380" priority="129">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="379" priority="130">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="378" priority="131">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="377" priority="132">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A19">
-    <cfRule type="expression" dxfId="370" priority="71">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="369" priority="72">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="368" priority="73">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="367" priority="74">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="366" priority="75">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="365" priority="76">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="364" priority="77">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="363" priority="78">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="362" priority="79">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="361" priority="80">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="360" priority="81">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="359" priority="82">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="358" priority="83">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="357" priority="84">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="356" priority="85">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="355" priority="86">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="354" priority="87">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="353" priority="88">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="352" priority="89">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="351" priority="90">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="350" priority="91">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="349" priority="92">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="348" priority="93">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="347" priority="94">
+    <cfRule type="expression" dxfId="376" priority="74">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="375" priority="75">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="374" priority="76">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="373" priority="77">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="372" priority="78">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="371" priority="79">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="370" priority="80">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="369" priority="81">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="368" priority="82">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="367" priority="83">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="366" priority="84">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="365" priority="85">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="364" priority="86">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="363" priority="87">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="362" priority="88">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="361" priority="89">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="360" priority="90">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="359" priority="91">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="358" priority="92">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="357" priority="93">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="356" priority="94">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="355" priority="95">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="354" priority="96">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="353" priority="97">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="346" priority="5">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="345" priority="6">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="344" priority="7">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="343" priority="8">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="342" priority="9">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="341" priority="10">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="340" priority="11">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="339" priority="12">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="338" priority="13">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="337" priority="14">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="336" priority="15">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="335" priority="16">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="334" priority="17">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="333" priority="18">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="332" priority="19">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="331" priority="20">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="330" priority="21">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="329" priority="22">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="328" priority="23">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="327" priority="24">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="326" priority="25">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="325" priority="26">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="324" priority="27">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="323" priority="28">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="322" priority="29">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="321" priority="30">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="320" priority="31">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="319" priority="32">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="318" priority="33">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="317" priority="34">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="316" priority="35">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="315" priority="36">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="314" priority="37">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="313" priority="38">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="312" priority="39">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="311" priority="40">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="310" priority="41">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="309" priority="42">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="308" priority="43">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="307" priority="44">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="306" priority="45">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="305" priority="46">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="304" priority="47">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="303" priority="48">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="302" priority="49">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="301" priority="50">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="300" priority="51">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="299" priority="52">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="298" priority="53">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="297" priority="54">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="296" priority="55">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="295" priority="56">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="294" priority="57">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="293" priority="58">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="292" priority="59">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="291" priority="60">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="290" priority="61">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="289" priority="62">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="288" priority="63">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="287" priority="64">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="286" priority="65">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="285" priority="66">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="284" priority="67">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="283" priority="68">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="282" priority="69">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="281" priority="70">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="280" priority="3">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="279" priority="4">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="278" priority="2">
+    <cfRule type="expression" dxfId="352" priority="8">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="351" priority="9">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="350" priority="10">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="349" priority="11">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="348" priority="12">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="347" priority="13">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="346" priority="14">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="345" priority="15">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="344" priority="16">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="343" priority="17">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="342" priority="18">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="341" priority="19">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="340" priority="20">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="339" priority="21">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="338" priority="22">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="337" priority="23">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="336" priority="24">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="335" priority="25">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="334" priority="26">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="333" priority="27">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="332" priority="28">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="331" priority="29">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="330" priority="30">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="329" priority="31">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="328" priority="32">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="327" priority="33">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="326" priority="34">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="325" priority="35">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="324" priority="36">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="323" priority="37">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="322" priority="38">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="321" priority="39">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="320" priority="40">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="319" priority="41">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="318" priority="42">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="317" priority="43">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="316" priority="44">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="315" priority="45">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="314" priority="46">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="313" priority="47">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="312" priority="48">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="311" priority="49">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="310" priority="50">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="309" priority="51">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="308" priority="52">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="307" priority="53">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="306" priority="54">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="305" priority="55">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="304" priority="56">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="303" priority="57">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="302" priority="58">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="301" priority="59">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="300" priority="60">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="299" priority="61">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="298" priority="62">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="297" priority="63">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="296" priority="64">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="295" priority="65">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="294" priority="66">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="293" priority="67">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="292" priority="68">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="291" priority="69">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="290" priority="70">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="289" priority="71">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="288" priority="72">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="287" priority="73">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="286" priority="6">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="285" priority="7">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="284" priority="5">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="283" priority="4">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="282" priority="3">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="281" priority="2">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="277" priority="1">
+    <cfRule type="expression" dxfId="280" priority="1">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32107,15 +32417,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.5"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="49.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.69921875" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" customWidth="1"/>
+    <col min="3" max="3" width="49.09765625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="50.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="2.5703125" customWidth="1"/>
+    <col min="5" max="5" width="50.69921875" customWidth="1"/>
+    <col min="6" max="6" width="10.8984375" customWidth="1"/>
+    <col min="8" max="8" width="2.59765625" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -32727,773 +33037,782 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F23:XFD23 A25:XFD1048576">
-    <cfRule type="expression" dxfId="276" priority="541">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="275" priority="542">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="274" priority="543">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="273" priority="544">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="272" priority="545">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="271" priority="546">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="270" priority="547">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="269" priority="548">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="268" priority="549">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="267" priority="550">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="266" priority="551">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="265" priority="552">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="264" priority="553">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="263" priority="554">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="262" priority="555">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="261" priority="556">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="260" priority="557">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="259" priority="558">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="258" priority="559">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="257" priority="560">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="256" priority="561">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="255" priority="562">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="254" priority="563">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="253" priority="564">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="252" priority="565">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="251" priority="566">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="250" priority="567">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="249" priority="568">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="248" priority="569">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="247" priority="570">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="246" priority="571">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="245" priority="572">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="244" priority="573">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="243" priority="574">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="242" priority="575">
+    <cfRule type="expression" dxfId="279" priority="544">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="278" priority="545">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="277" priority="546">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="276" priority="547">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="275" priority="548">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="274" priority="549">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="273" priority="550">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="272" priority="551">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="271" priority="552">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="270" priority="553">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="269" priority="554">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="268" priority="555">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="267" priority="556">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="266" priority="557">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="265" priority="558">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="264" priority="559">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="263" priority="560">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="262" priority="561">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="261" priority="562">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="260" priority="563">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="259" priority="564">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="258" priority="565">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="257" priority="566">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="256" priority="567">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="255" priority="568">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="254" priority="569">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="253" priority="570">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="252" priority="571">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="251" priority="572">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="250" priority="573">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="249" priority="574">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="248" priority="575">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="247" priority="576">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="246" priority="577">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="245" priority="578">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD22">
-    <cfRule type="expression" dxfId="241" priority="351">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="240" priority="352">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="239" priority="353">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="238" priority="354">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="237" priority="517">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="236" priority="518">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="235" priority="519">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="234" priority="520">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="233" priority="521">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="232" priority="522">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="231" priority="523">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="230" priority="524">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="229" priority="525">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="228" priority="526">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="227" priority="527">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="226" priority="528">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="225" priority="529">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="224" priority="530">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="223" priority="531">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="222" priority="532">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="221" priority="533">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="220" priority="534">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="219" priority="535">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="218" priority="536">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="217" priority="537">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="538">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="215" priority="539">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="214" priority="540">
+    <cfRule type="expression" dxfId="244" priority="354">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="243" priority="355">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="242" priority="356">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="241" priority="357">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="240" priority="520">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="239" priority="521">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="238" priority="522">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="237" priority="523">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="236" priority="524">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="235" priority="525">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="234" priority="526">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="233" priority="527">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="232" priority="528">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="231" priority="529">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="230" priority="530">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="229" priority="531">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="228" priority="532">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="227" priority="533">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="534">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="225" priority="535">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="224" priority="536">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="223" priority="537">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="222" priority="538">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="221" priority="539">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="220" priority="540">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="219" priority="541">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="542">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="217" priority="543">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:D24 F24:XFD24">
-    <cfRule type="expression" dxfId="213" priority="493">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="212" priority="494">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="211" priority="495">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="496">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="209" priority="497">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="208" priority="498">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="207" priority="499">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="206" priority="500">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="205" priority="501">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="502">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="203" priority="503">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="202" priority="504">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="201" priority="505">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="200" priority="506">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="199" priority="507">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="198" priority="508">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="197" priority="509">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="196" priority="510">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="195" priority="511">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="194" priority="512">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="193" priority="513">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="514">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="191" priority="515">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="516">
+    <cfRule type="expression" dxfId="216" priority="496">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="215" priority="497">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="498">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="213" priority="499">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="500">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="211" priority="501">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="502">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="209" priority="503">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="208" priority="504">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="207" priority="505">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="506">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="205" priority="507">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="508">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="203" priority="509">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="202" priority="510">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="201" priority="511">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="200" priority="512">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="199" priority="513">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="514">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="197" priority="515">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="516">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="195" priority="517">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="518">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="193" priority="519">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="189" priority="469">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="188" priority="470">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="187" priority="471">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="472">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="185" priority="473">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="474">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="183" priority="475">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="476">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="181" priority="477">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="478">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="179" priority="479">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="480">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="177" priority="481">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="482">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="175" priority="483">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="484">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="173" priority="485">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="486">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="171" priority="487">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="488">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="169" priority="489">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="490">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="167" priority="491">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="492">
+    <cfRule type="expression" dxfId="192" priority="472">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="191" priority="473">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="474">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="189" priority="475">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="476">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="477">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="478">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="479">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="480">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="183" priority="481">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="482">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="181" priority="483">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="484">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="179" priority="485">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="486">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="177" priority="487">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="176" priority="488">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="175" priority="489">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="490">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="173" priority="491">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="492">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="171" priority="493">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="494">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="495">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD22 F23:XFD23 A24:XFD1048576">
-    <cfRule type="expression" dxfId="165" priority="437">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="438">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="163" priority="439">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="440">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="161" priority="441">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="442">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="159" priority="443">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="158" priority="444">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="157" priority="445">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="446">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="155" priority="447">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="154" priority="448">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="153" priority="449">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="450">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="151" priority="451">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="452">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="149" priority="453">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="454">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="455">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="456">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="145" priority="457">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="458">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="143" priority="459">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="460">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="141" priority="461">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="462">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="139" priority="463">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="464">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="137" priority="465">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="466">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="135" priority="467">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="468">
+    <cfRule type="expression" dxfId="168" priority="440">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="167" priority="441">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="442">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="443">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="444">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="163" priority="445">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="446">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="447">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="448">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="449">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="450">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="451">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="452">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="155" priority="453">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="454">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="455">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="456">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="151" priority="457">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="458">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="149" priority="459">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="460">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="461">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="462">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="463">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="464">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="143" priority="465">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="466">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="467">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="468">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="469">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="470">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="137" priority="471">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:D23">
-    <cfRule type="expression" dxfId="133" priority="413">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="414">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="131" priority="415">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="416">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="129" priority="417">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="418">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="127" priority="419">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="420">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="125" priority="421">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="422">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="423">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="424">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="425">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="426">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="119" priority="427">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="428">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="429">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="430">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="431">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="432">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="113" priority="433">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="434">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="435">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="436">
+    <cfRule type="expression" dxfId="136" priority="416">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="417">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="418">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="419">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="420">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="131" priority="421">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="422">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="423">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="424">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="425">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="426">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="427">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="428">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="429">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="430">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="431">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="432">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="119" priority="433">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="434">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="435">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="436">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="437">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="438">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="439">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="109" priority="389">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="390">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="391">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="392">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="393">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="394">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="103" priority="395">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="396">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="397">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="398">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="399">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="400">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="97" priority="401">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="402">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="403">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="404">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="405">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="406">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="407">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="408">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="409">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="410">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="411">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="412">
+    <cfRule type="expression" dxfId="112" priority="392">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="393">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="394">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="395">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="396">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="397">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="398">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="399">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="400">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="401">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="402">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="403">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="404">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="405">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="406">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="407">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="408">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="409">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="410">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="411">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="412">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="413">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="414">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="415">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:E23">
-    <cfRule type="expression" dxfId="85" priority="359">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="360">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="83" priority="361">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="362">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="363">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="364">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="365">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="366">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="77" priority="367">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="368">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="369">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="370">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="371">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="372">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="373">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="374">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="375">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="376">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="377">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="378">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="379">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="380">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="381">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="382">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="383">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="384">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="385">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="386">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="387">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="388">
+    <cfRule type="expression" dxfId="88" priority="362">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="363">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="364">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="365">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="366">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="367">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="368">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="369">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="370">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="371">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="372">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="373">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="374">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="375">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="376">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="377">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="378">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="379">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="380">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="381">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="382">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="383">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="384">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="385">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="386">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="387">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="388">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="389">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="390">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="391">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="55" priority="306">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="307">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="308">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="309">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="310">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="311">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="312">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="313">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="314">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="315">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="316">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="317">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="318">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="319">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="320">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="321">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="322">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="347">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="348">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="349">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="350">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="355">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="356">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="357">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="358">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="201">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="202">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="113">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="114">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="115">
+    <cfRule type="expression" dxfId="58" priority="309">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="310">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="311">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="312">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="313">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="314">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="315">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="316">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="317">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="318">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="319">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="320">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="321">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="322">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="323">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="324">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="325">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="350">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="351">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="352">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="353">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="358">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="359">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="360">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="361">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="204">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="205">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="116">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="117">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="118">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="5">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="4">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="3">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="25" priority="2">
@@ -33501,76 +33820,76 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="expression" dxfId="24" priority="323">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="324">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="325">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="326">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="327">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="328">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="329">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="330">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="331">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="332">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="333">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="334">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="335">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="336">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="337">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="338">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="339">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="340">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="341">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="342">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="343">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="344">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="345">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="346">
+    <cfRule type="expression" dxfId="24" priority="326">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="327">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="328">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="329">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="330">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="331">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="332">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="333">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="334">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="335">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="336">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="337">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="338">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="339">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="340">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="341">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="342">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="343">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="344">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="345">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="346">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="347">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="348">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="349">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
